--- a/Kyle Lee/jobs - Copy.xlsx
+++ b/Kyle Lee/jobs - Copy.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Desktop\Engineering_Year_4\DATA311\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Desktop\Engineering_Year_4\DATA311\DATA311-Machine-Learning-Project\Kyle Lee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E828466D-B429-446C-962E-DD9148A8C30D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63470C1F-66B2-4215-9161-F8D3D7AFF522}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13215" yWindow="-150" windowWidth="24285" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jobs - Copy" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'jobs - Copy'!$A$2:$R$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1066,7 +1069,7 @@
   <dimension ref="A1:R901"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -51513,6 +51516,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:R2" xr:uid="{D6E27C19-C318-47BC-9B3B-2332E6093FAA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
